--- a/data/IN/undergrad/bill_code_comparison revised.xlsx
+++ b/data/IN/undergrad/bill_code_comparison revised.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschosta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\Dropbox\Active\Forge LLC\forge_code\trunk\data\IN\undergrad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$250</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1574,7 +1574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1619,10 +1619,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1940,8 +1940,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,31 +1950,31 @@
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
       <c r="J1" t="s">
         <v>503</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2450,7 +2450,7 @@
       <c r="C17">
         <v>217457</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="1">
@@ -2572,7 +2572,7 @@
       <c r="C21">
         <v>223867</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="1">
@@ -3932,7 +3932,7 @@
       <c r="C65">
         <v>217872</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E65" s="1">
@@ -5924,7 +5924,7 @@
       <c r="C134">
         <v>444634</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E134" s="1">
@@ -6037,6 +6037,9 @@
       <c r="A138" t="s">
         <v>258</v>
       </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
       <c r="C138">
         <v>446107</v>
       </c>
@@ -6116,6 +6119,9 @@
       <c r="A141" t="s">
         <v>262</v>
       </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
       <c r="C141">
         <v>448229</v>
       </c>
@@ -6171,6 +6177,9 @@
       <c r="A143" t="s">
         <v>266</v>
       </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
       <c r="C143">
         <v>448581</v>
       </c>
@@ -6202,6 +6211,9 @@
       <c r="A144" t="s">
         <v>31</v>
       </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
       <c r="C144">
         <v>448479</v>
       </c>
@@ -6236,6 +6248,9 @@
       <c r="A145" t="s">
         <v>269</v>
       </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
       <c r="C145">
         <v>469414</v>
       </c>
@@ -6270,6 +6285,9 @@
       <c r="A146" t="s">
         <v>271</v>
       </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
       <c r="C146">
         <v>451201</v>
       </c>
@@ -6304,6 +6322,9 @@
       <c r="A147" t="s">
         <v>273</v>
       </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
       <c r="C147">
         <v>454242</v>
       </c>
@@ -6566,6 +6587,9 @@
       <c r="A157" t="s">
         <v>291</v>
       </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
       <c r="C157">
         <v>464921</v>
       </c>
@@ -6600,6 +6624,9 @@
       <c r="A158" t="s">
         <v>293</v>
       </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
       <c r="C158">
         <v>464975</v>
       </c>
@@ -6661,6 +6688,9 @@
       <c r="A160" t="s">
         <v>296</v>
       </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
       <c r="C160">
         <v>465032</v>
       </c>
@@ -6692,6 +6722,9 @@
       <c r="A161" t="s">
         <v>298</v>
       </c>
+      <c r="B161">
+        <v>13</v>
+      </c>
       <c r="C161">
         <v>465033</v>
       </c>
@@ -6822,6 +6855,9 @@
       <c r="A166" t="s">
         <v>308</v>
       </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
       <c r="C166">
         <v>465212</v>
       </c>
@@ -6952,6 +6988,9 @@
       <c r="A171" t="s">
         <v>318</v>
       </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
       <c r="C171">
         <v>439934</v>
       </c>
@@ -6983,6 +7022,9 @@
       <c r="A172" t="s">
         <v>320</v>
       </c>
+      <c r="B172">
+        <v>14</v>
+      </c>
       <c r="C172">
         <v>439941</v>
       </c>
@@ -7110,6 +7152,9 @@
       <c r="A177" t="s">
         <v>330</v>
       </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
       <c r="C177">
         <v>440221</v>
       </c>
@@ -7144,6 +7189,9 @@
       <c r="A178" t="s">
         <v>332</v>
       </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
       <c r="C178">
         <v>440222</v>
       </c>
@@ -7178,6 +7226,9 @@
       <c r="A179" t="s">
         <v>334</v>
       </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
       <c r="C179">
         <v>444321</v>
       </c>
@@ -7209,6 +7260,9 @@
       <c r="A180" t="s">
         <v>336</v>
       </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
       <c r="C180">
         <v>444302</v>
       </c>
@@ -7315,6 +7369,9 @@
       <c r="A184" t="s">
         <v>343</v>
       </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
       <c r="C184">
         <v>446482</v>
       </c>
@@ -7346,6 +7403,9 @@
       <c r="A185" t="s">
         <v>345</v>
       </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
       <c r="C185">
         <v>449921</v>
       </c>
@@ -7428,6 +7488,9 @@
       <c r="A188" t="s">
         <v>351</v>
       </c>
+      <c r="B188">
+        <v>14</v>
+      </c>
       <c r="C188">
         <v>449767</v>
       </c>
@@ -7531,6 +7594,9 @@
       <c r="A192" t="s">
         <v>357</v>
       </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
       <c r="C192">
         <v>449688</v>
       </c>
@@ -7610,6 +7676,9 @@
       <c r="A195" t="s">
         <v>363</v>
       </c>
+      <c r="B195">
+        <v>7</v>
+      </c>
       <c r="C195">
         <v>453303</v>
       </c>
@@ -7665,6 +7734,9 @@
       <c r="A197" t="s">
         <v>4</v>
       </c>
+      <c r="B197">
+        <v>15</v>
+      </c>
       <c r="C197">
         <v>583138</v>
       </c>
@@ -7723,6 +7795,9 @@
       <c r="A199" t="s">
         <v>369</v>
       </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
       <c r="C199">
         <v>578632</v>
       </c>
@@ -7781,6 +7856,9 @@
       <c r="A201" t="s">
         <v>373</v>
       </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
       <c r="C201">
         <v>578577</v>
       </c>
@@ -7836,6 +7914,9 @@
       <c r="A203" t="s">
         <v>252</v>
       </c>
+      <c r="B203">
+        <v>8</v>
+      </c>
       <c r="C203">
         <v>581272</v>
       </c>
@@ -7870,6 +7951,9 @@
       <c r="A204" t="s">
         <v>378</v>
       </c>
+      <c r="B204">
+        <v>9</v>
+      </c>
       <c r="C204">
         <v>580573</v>
       </c>
@@ -7901,6 +7985,9 @@
       <c r="A205" t="s">
         <v>380</v>
       </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
       <c r="C205">
         <v>580620</v>
       </c>
@@ -7932,6 +8019,9 @@
       <c r="A206" t="s">
         <v>382</v>
       </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
       <c r="C206">
         <v>580793</v>
       </c>
@@ -8035,6 +8125,9 @@
       <c r="A210" t="s">
         <v>191</v>
       </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
       <c r="C210">
         <v>587744</v>
       </c>
@@ -8138,6 +8231,9 @@
       <c r="A214" t="s">
         <v>396</v>
       </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
       <c r="C214">
         <v>590052</v>
       </c>
@@ -8271,6 +8367,9 @@
       <c r="A219" t="s">
         <v>406</v>
       </c>
+      <c r="B219">
+        <v>15</v>
+      </c>
       <c r="C219">
         <v>590117</v>
       </c>
@@ -8353,6 +8452,9 @@
       <c r="A222" t="s">
         <v>412</v>
       </c>
+      <c r="B222">
+        <v>11</v>
+      </c>
       <c r="C222">
         <v>591158</v>
       </c>
@@ -8387,6 +8489,9 @@
       <c r="A223" t="s">
         <v>414</v>
       </c>
+      <c r="B223">
+        <v>14</v>
+      </c>
       <c r="C223">
         <v>592389</v>
       </c>
@@ -8418,6 +8523,9 @@
       <c r="A224" t="s">
         <v>416</v>
       </c>
+      <c r="B224">
+        <v>14</v>
+      </c>
       <c r="C224">
         <v>622338</v>
       </c>
@@ -8500,6 +8608,9 @@
       <c r="A227" t="s">
         <v>91</v>
       </c>
+      <c r="B227">
+        <v>15</v>
+      </c>
       <c r="C227">
         <v>587977</v>
       </c>
@@ -8558,6 +8669,9 @@
       <c r="A229" t="s">
         <v>424</v>
       </c>
+      <c r="B229">
+        <v>7</v>
+      </c>
       <c r="C229">
         <v>578574</v>
       </c>
@@ -8613,6 +8727,9 @@
       <c r="A231" t="s">
         <v>428</v>
       </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
       <c r="C231">
         <v>578502</v>
       </c>
@@ -8695,6 +8812,9 @@
       <c r="A234" t="s">
         <v>432</v>
       </c>
+      <c r="B234">
+        <v>11</v>
+      </c>
       <c r="C234">
         <v>579349</v>
       </c>
@@ -8726,6 +8846,9 @@
       <c r="A235" t="s">
         <v>434</v>
       </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
       <c r="C235">
         <v>579382</v>
       </c>
@@ -8805,6 +8928,9 @@
       <c r="A238" t="s">
         <v>440</v>
       </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
       <c r="C238">
         <v>581151</v>
       </c>
@@ -8884,6 +9010,9 @@
       <c r="A241" t="s">
         <v>445</v>
       </c>
+      <c r="B241">
+        <v>8</v>
+      </c>
       <c r="C241">
         <v>582913</v>
       </c>
@@ -8966,6 +9095,9 @@
       <c r="A244" t="s">
         <v>451</v>
       </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
       <c r="C244">
         <v>586739</v>
       </c>
@@ -8997,6 +9129,9 @@
       <c r="A245" t="s">
         <v>453</v>
       </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
       <c r="C245">
         <v>586899</v>
       </c>
@@ -9028,6 +9163,9 @@
       <c r="A246" t="s">
         <v>455</v>
       </c>
+      <c r="B246">
+        <v>9</v>
+      </c>
       <c r="C246">
         <v>586982</v>
       </c>
@@ -9058,6 +9196,9 @@
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>457</v>
+      </c>
+      <c r="B247">
+        <v>15</v>
       </c>
       <c r="C247">
         <v>588447</v>
